--- a/pearson_tables/tp_netherlands_cumul-1-2.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-2.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7732356638109867</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5434138644624643</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5745306728707693</v>
+        <v>-0.6236376460925066</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7135603354839156</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4990073186614999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6252688080698584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8145295520077632</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6862740288970197</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6070999534064878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7967622802438079</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5486541881563669</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6497777060326424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8425050278358414</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6112515163559931</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6419463854794981</v>
+        <v>-0.7261716424463897</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6991185265758669</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6313855668636426</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4735828366125624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.727220569223872</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5513657646856966</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5277004466435056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,10 +569,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5779388516058986</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
